--- a/DSA2/task11stack/result.xlsx
+++ b/DSA2/task11stack/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="7">
   <si>
     <t>sourabh</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>monu</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,6 +307,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DSA2/task11stack/result.xlsx
+++ b/DSA2/task11stack/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="17">
   <si>
     <t>sourabh</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>arpit</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>rishabh</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>mohit</t>
   </si>
 </sst>
 </file>
@@ -277,7 +307,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -288,31 +318,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DSA2/task11stack/result.xlsx
+++ b/DSA2/task11stack/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="17">
   <si>
     <t>sourabh</t>
   </si>
